--- a/Files/Vaccine_January 1, 2018.xlsx
+++ b/Files/Vaccine_January 1, 2018.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP [1]</t>
+    <t xml:space="preserve">DTaP </t>
   </si>
   <si>
     <t xml:space="preserve">Daptacel</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">10 pack - 1 dose syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IPV [2]</t>
+    <t xml:space="preserve">DTaP-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Quadracel</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">58160-0812-52</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-Hep B-IPV [4]</t>
+    <t xml:space="preserve">DTaP-Hep B-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Pediarix</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">$72.73</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IP-HI [4]</t>
+    <t xml:space="preserve">DTaP-IP-HI </t>
   </si>
   <si>
     <t xml:space="preserve">Pentacel</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">$92.58</t>
   </si>
   <si>
-    <t xml:space="preserve">e-IPV [5]</t>
+    <t xml:space="preserve">e-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">IPOL</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">$31.97</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Pediatric [5]</t>
+    <t xml:space="preserve">Hepatitis A Pediatric </t>
   </si>
   <si>
     <t xml:space="preserve">Vaqta</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">58160-0825-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only </t>
   </si>
   <si>
     <t xml:space="preserve">Twinrix</t>
@@ -221,8 +221,7 @@
     <t xml:space="preserve">$98.10</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B [5]
-Pediatric/Adolescent</t>
+    <t xml:space="preserve">Hepatitis B  Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">Engerix B</t>
@@ -234,8 +233,7 @@
     <t xml:space="preserve">$12.30</t>
   </si>
   <si>
-    <t xml:space="preserve">Recombivax
-HB</t>
+    <t xml:space="preserve">Recombivax HB</t>
   </si>
   <si>
     <t xml:space="preserve">00006-4981-00</t>
@@ -244,7 +242,7 @@
     <t xml:space="preserve">$23.95</t>
   </si>
   <si>
-    <t xml:space="preserve">Hib [5]</t>
+    <t xml:space="preserve">Hib </t>
   </si>
   <si>
     <t xml:space="preserve">PedvaxHIB</t>
@@ -283,7 +281,7 @@
     <t xml:space="preserve">$10.26</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV - Human Papillomavirus 9-valent [5]</t>
+    <t xml:space="preserve">HPV - Human Papillomavirus 9-valent </t>
   </si>
   <si>
     <t xml:space="preserve">Gardasil9</t>
@@ -298,7 +296,7 @@
     <t xml:space="preserve">$204.87</t>
   </si>
   <si>
-    <t xml:space="preserve">MENB - Meningococcal Group B [5]</t>
+    <t xml:space="preserve">MENB - Meningococcal Group B </t>
   </si>
   <si>
     <t xml:space="preserve">Trumenba</t>
@@ -337,7 +335,7 @@
     <t xml:space="preserve">1 pack - 1 dose syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) [5]</t>
+    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) </t>
   </si>
   <si>
     <t xml:space="preserve">Menactra</t>
@@ -364,7 +362,7 @@
     <t xml:space="preserve">$117.418</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) [1]</t>
+    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) </t>
   </si>
   <si>
     <t xml:space="preserve">M-M-RII</t>
@@ -379,7 +377,7 @@
     <t xml:space="preserve">$70.92</t>
   </si>
   <si>
-    <t xml:space="preserve">MMR/Varicella [2]</t>
+    <t xml:space="preserve">MMR/Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">ProQuad</t>
@@ -394,8 +392,7 @@
     <t xml:space="preserve">$202.41</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5] (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 13-valent  (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13 TM</t>
@@ -425,7 +422,7 @@
     <t xml:space="preserve">$94.51</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent </t>
   </si>
   <si>
     <t xml:space="preserve">RotaTeq</t>
@@ -449,7 +446,7 @@
     <t xml:space="preserve">25 pack - 1 dose tube</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Oral [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Oral </t>
   </si>
   <si>
     <t xml:space="preserve">Rotarix</t>
@@ -464,7 +461,7 @@
     <t xml:space="preserve">$109.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus and Diphtheria Toxoids [3]</t>
+    <t xml:space="preserve">Tetanus and Diphtheria Toxoids </t>
   </si>
   <si>
     <t xml:space="preserve">Tenivac</t>
@@ -500,7 +497,7 @@
     <t xml:space="preserve">200-2017-93271</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis [1]</t>
+    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis </t>
   </si>
   <si>
     <t xml:space="preserve">Boostrix</t>
@@ -536,7 +533,7 @@
     <t xml:space="preserve">5 pack - 1 dose syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella [5]</t>
+    <t xml:space="preserve">Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">Varivax</t>
@@ -551,7 +548,7 @@
     <t xml:space="preserve">$122.02</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Adult [5]</t>
+    <t xml:space="preserve">Hepatitis A-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">00006-4096-02</t>
@@ -572,7 +569,7 @@
     <t xml:space="preserve">$29.23</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Adult [5]</t>
+    <t xml:space="preserve">Hepatitis A Adult </t>
   </si>
   <si>
     <t xml:space="preserve">58160-0826-11</t>
@@ -593,13 +590,13 @@
     <t xml:space="preserve">$27.68</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$55.90</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B-Adult [5]</t>
+    <t xml:space="preserve">Hepatitis B-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">Engerix-B</t>
@@ -620,13 +617,13 @@
     <t xml:space="preserve">$29.38</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV-Human Papillomavirus 9 Valent [5]</t>
+    <t xml:space="preserve">HPV-Human Papillomavirus 9 Valent </t>
   </si>
   <si>
     <t xml:space="preserve">$116.22</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps,  Rubella-Adult [1]</t>
+    <t xml:space="preserve">Measles, Mumps,  Rubella-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">10 pack - 1 dose vials</t>
@@ -659,8 +656,7 @@
     <t xml:space="preserve">$102.33</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5] (Adult)</t>
+    <t xml:space="preserve">Pneumococcal 13-valent  (Adult)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13</t>
@@ -702,7 +698,7 @@
     <t xml:space="preserve">$24.79</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella-Adult [5]</t>
+    <t xml:space="preserve">Varicella-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$69.94</t>
@@ -723,12 +719,10 @@
     <t xml:space="preserve">$212.666</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6 months and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent</t>
+    <t xml:space="preserve">Influenza  (Age 6 months and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0627-15</t>
@@ -743,13 +737,10 @@
     <t xml:space="preserve">200-2017-92736</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6-35 months)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent
-Pediatric dose</t>
+    <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone Quadrivalent Pediatric dose</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0517-25</t>
@@ -761,8 +752,7 @@
     <t xml:space="preserve">$18.72</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 36 months and older)</t>
+    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0417-50</t>
@@ -774,8 +764,7 @@
     <t xml:space="preserve">49281-0417-10</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluarix
-Quadrivalent</t>
+    <t xml:space="preserve">Fluarix Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">58160-0907-52</t>
@@ -793,8 +782,7 @@
     <t xml:space="preserve">200-2017-92735</t>
   </si>
   <si>
-    <t xml:space="preserve">FluLaval
-Quadrivalent</t>
+    <t xml:space="preserve">FluLaval Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">19515-0896-11</t>
@@ -809,8 +797,7 @@
     <t xml:space="preserve">19515-0912-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 4 years and older)</t>
+    <t xml:space="preserve">Influenza  (Age 4 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Flucelvax Quadrivalent</t>
@@ -855,8 +842,7 @@
     <t xml:space="preserve">$11.94</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 9 years and older)</t>
+    <t xml:space="preserve">Influenza  (Age 9 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Afluria</t>
@@ -865,8 +851,7 @@
     <t xml:space="preserve">33332-0017-01</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack-1 dose
-syringe</t>
+    <t xml:space="preserve">10 pack-1 dose syringe</t>
   </si>
   <si>
     <t xml:space="preserve">$9.99</t>
@@ -902,12 +887,10 @@
     <t xml:space="preserve">$12.55</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 18 years and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afluria
-Quadrivalent</t>
+    <t xml:space="preserve">Influenza  (Age 18 years and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afluria Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">33332-0317-01</t>
